--- a/SmartFarm Packet Define.xlsx
+++ b/SmartFarm Packet Define.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\outsource\smartfarm_hosco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03.Git\smf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D25FB-353B-4D61-BB6D-5362584FB74C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tb1_Device List" sheetId="1" r:id="rId1"/>
@@ -1800,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F78921-321B-434F-B2C0-A5C6425DC557}">
   <dimension ref="A1:AMG23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F9C6F4-5876-443D-8C5A-C795887C47B7}">
   <dimension ref="A1:AMG22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9543BD-6797-48BE-8E10-41BF39F82FD7}">
   <dimension ref="A4:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2584,7 +2585,7 @@
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7232,8 +7233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7550,7 +7551,7 @@
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SmartFarm Packet Define.xlsx
+++ b/SmartFarm Packet Define.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03.Git\smf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D25FB-353B-4D61-BB6D-5362584FB74C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6CFC1-5E6C-4E2F-8692-3697BDC142D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tb1_Device List" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="247">
   <si>
     <t>STT</t>
   </si>
@@ -893,6 +893,21 @@
   </si>
   <si>
     <t>Cấu hình wifi</t>
+  </si>
+  <si>
+    <t>Bản tin reset thiết bị</t>
+  </si>
+  <si>
+    <t>CONF,&lt;TypeDevice&gt;,&lt;rỗng&gt;,ID Gw,Reset!</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Reset thiết bị</t>
+  </si>
+  <si>
+    <t>0101 0001 (0x51)</t>
   </si>
 </sst>
 </file>
@@ -1799,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F78921-321B-434F-B2C0-A5C6425DC557}">
-  <dimension ref="A1:AMG23"/>
+  <dimension ref="A1:AMG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,153 +1982,170 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>8</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="29">
-        <v>1</v>
-      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>9</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>171</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>201</v>
+        <v>146</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
+        <v>9</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>10</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
     </row>
-    <row r="18" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>11</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C19" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
     </row>
-    <row r="20" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+    <row r="21" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B21" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D21" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>13</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29">
-        <v>1</v>
-      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>14</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7231,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7533,6 +7565,21 @@
         <v>239</v>
       </c>
       <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
